--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem3/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem3/67/word_level_predictions_67.xlsx
@@ -1201,7 +1201,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G15" s="2" t="b">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem3/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem3/67/word_level_predictions_67.xlsx
@@ -1201,7 +1201,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G15" s="2" t="b">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
